--- a/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
+++ b/Projects/1259_usbComm/specsheetsConsole/Sheets/ConsoleProceduresLabView.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.lee\Documents\GitHub\LabVIEW\Projects\1259_usbComm\specsheetsConsole\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="2835"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21330" windowHeight="2835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="combine" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="467">
   <si>
     <t>Rev0</t>
   </si>
@@ -3134,11 +3134,26 @@
 Disconnect all wires and cables from the console.
 </t>
   </si>
+  <si>
+    <t>Hello Tracy,
+Please follow software engineer Brian Strickler instruction for programming the ETPF69620U-INT console as sent previously.
+This procedure will become standard operating procedure for -INT and -CH consoles in the future.
+Meaning the -INT and -CH consoles will not have a separate software release or use different software.
+The ETPF69620U-INT will use the ETPF69620U_83_718_202106041006.hex software. It is a universal console as denoted with the "U".
+It uses the same software as the ETPF69620U but the system units are changed to KM by following the process:
+1. Insert DMK
+2. Hold 2 and 4 KM/H keys 
+3. Release keys once an audible beep is heard
+4. Press "START" to activate a mode change (this helps ensure the system units are saved to non-volatile memory)
+5. Press "STOP"
+6. Power cycle
+This will change the system units to be KM for the ETPF69620U-INT.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3504,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -9869,7 +9884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="408" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>148</v>
       </c>
@@ -10039,8 +10054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10049,7 +10064,8 @@
     <col min="2" max="2" width="91.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="3"/>
+    <col min="5" max="5" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="3"/>
     <col min="10" max="10" width="1" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -10281,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="408" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -10294,8 +10310,12 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>466</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>